--- a/xlsx/政党_intext.xlsx
+++ b/xlsx/政党_intext.xlsx
@@ -15,1767 +15,1731 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="575">
   <si>
     <t>政党</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E9%BB%A8</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>政治</t>
+  </si>
+  <si>
+    <t>政策_政策_政治_政党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%B8%E5%9F%BA%E6%9C%AC%E4%B8%BB%E9%A1%8C%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>政治学基本主题列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>政治经济学</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Political_history</t>
+  </si>
+  <si>
+    <t>en-Political history</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Political_history_of_the_world</t>
+  </si>
+  <si>
+    <t>en-Political history of the world</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%93%B2%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>政治哲学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E4%BD%93</t>
+  </si>
+  <si>
+    <t>政体</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E6%94%BF%E5%BA%9C%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>无政府主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%8E%E9%82%A6</t>
+  </si>
+  <si>
+    <t>城邦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB</t>
+  </si>
+  <si>
+    <t>民主</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Federacy</t>
+  </si>
+  <si>
+    <t>en-Federacy</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%81%E5%BB%BA%E5%88%B6%E5%BA%A6_(%E6%AD%90%E6%B4%B2)</t>
+  </si>
+  <si>
+    <t>封建制度 (欧洲)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E8%A3%81%E6%94%BF%E4%BD%93</t>
+  </si>
+  <si>
+    <t>独裁政体</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%93%A1%E6%9C%83%E5%88%B6</t>
+  </si>
+  <si>
+    <t>委员会制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E8%8B%B1%E6%94%BF%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>精英政治</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E5%88%B6</t>
+  </si>
+  <si>
+    <t>君主制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AE%AE%E4%BC%9A%E5%88%B6</t>
+  </si>
+  <si>
+    <t>议会制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%80%BB%E7%BB%9F%E5%88%B6</t>
+  </si>
+  <si>
+    <t>总统制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E6%80%BB%E7%BB%9F%E5%88%B6</t>
+  </si>
+  <si>
+    <t>半总统制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E6%9D%83%E6%94%BF%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>神权政治</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>政治学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%A6%E5%AE%B6</t>
+  </si>
+  <si>
+    <t>政治学家</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E5%85%B3%E7%B3%BB%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>国际关系学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%97%9C%E4%BF%82%E7%90%86%E8%AB%96</t>
+  </si>
+  <si>
+    <t>国际关系理论</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E8%BE%83%E6%94%BF%E6%B2%BB%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>比较政治学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E8%A1%8C%E6%94%BF%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>公共行政学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E5%83%9A%E5%88%B6</t>
+  </si>
+  <si>
+    <t>官僚制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E5%B1%82%E5%AE%98%E5%83%9A</t>
+  </si>
+  <si>
+    <t>基层官僚</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Adhocracy</t>
+  </si>
+  <si>
+    <t>en-Adhocracy</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E7%AD%96</t>
+  </si>
+  <si>
+    <t>政策</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E6%94%BF%E7%AD%96</t>
+  </si>
+  <si>
+    <t>公共政策</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Public_policy_doctrine</t>
+  </si>
+  <si>
+    <t>en-Public policy doctrine</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E7%9B%8A</t>
+  </si>
+  <si>
+    <t>公益</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E4%BA%A4%E6%94%BF%E7%AD%96</t>
+  </si>
+  <si>
+    <t>外交政策</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
+  </si>
+  <si>
+    <t>权力分立</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
+  </si>
+  <si>
+    <t>立法机构</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E6%9C%BA%E6%9E%84</t>
+  </si>
+  <si>
+    <t>行政机构</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E6%A9%9F%E6%A7%8B</t>
+  </si>
+  <si>
+    <t>司法机构</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%80%89%E4%B8%BE%E5%A7%94%E5%91%98%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>中央选举委员会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%9D%83</t>
+  </si>
+  <si>
+    <t>主权</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Theories_of_political_behavior</t>
+  </si>
+  <si>
+    <t>en-Theories of political behavior</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%BF%83%E7%90%86%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>政治心理学</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Biology_and_political_orientation</t>
+  </si>
+  <si>
+    <t>en-Biology and political orientation</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Political_organisation</t>
+  </si>
+  <si>
+    <t>en-Political organisation</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8A%95%E7%A5%A8%E5%88%B6%E5%BA%A6</t>
+  </si>
+  <si>
+    <t>投票制度</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%80%89%E4%B8%BE</t>
+  </si>
+  <si>
+    <t>选举</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8A%95%E7%A5%A8</t>
+  </si>
+  <si>
+    <t>投票</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>联邦主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C</t>
+  </si>
+  <si>
+    <t>政府</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E8%AF%86%E5%BD%A2%E6%80%81</t>
+  </si>
+  <si>
+    <t>意识形态</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Template_talk:Politics</t>
+  </si>
+  <si>
+    <t>Template talk-Politics</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%B7%E6%94%BF%E9%BB%A8</t>
+  </si>
+  <si>
+    <t>执政党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E6%80%9D%E6%83%B3</t>
+  </si>
+  <si>
+    <t>政治思想</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E7%9B%8A</t>
+  </si>
+  <si>
+    <t>利益</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BB%A3%E8%AD%B0%E5%88%B6%E6%B0%91%E4%B8%BB</t>
+  </si>
+  <si>
+    <t>代议制民主</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%81%B8%E8%88%89</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E8%81%AF%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>政治联盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9F%B7%E6%94%BF</t>
+  </si>
+  <si>
+    <t>联合执政</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E8%AD%98%E5%BD%A2%E6%85%8B</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E6%B4%BE%E5%88%A5</t>
+  </si>
+  <si>
+    <t>政治派别</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%BE%B7%E8%92%99%C2%B7%E6%9F%8F%E5%85%8B</t>
+  </si>
+  <si>
+    <t>埃德蒙·柏克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E5%88%A9%E7%9B%8A</t>
+  </si>
+  <si>
+    <t>国家利益</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%B0%91%E5%9B%A2%E4%BD%93</t>
+  </si>
+  <si>
+    <t>人民团体</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%8B%E6%9C%9D</t>
+  </si>
+  <si>
+    <t>宋朝</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AB%96%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>论语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%BC%A2</t>
+  </si>
+  <si>
+    <t>东汉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%9A%E9%94%A2%E4%B9%8B%E7%A5%B8</t>
+  </si>
+  <si>
+    <t>党锢之祸</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%8B%E4%BB%81%E5%AE%97</t>
+  </si>
+  <si>
+    <t>宋仁宗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E9%99%BD%E4%BF%AE</t>
+  </si>
+  <si>
+    <t>欧阳修</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%8B%E9%BB%A8%E8%AB%96</t>
+  </si>
+  <si>
+    <t>朋党论</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%8B%E7%A5%9E%E5%AE%97</t>
+  </si>
+  <si>
+    <t>宋神宗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%88%8A%E9%BB%A8%E7%88%AD</t>
+  </si>
+  <si>
+    <t>新旧党争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>中国人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E6%94%BF%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>民主政治</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E6%B0%91%E6%94%BF%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>全民政治</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AE%AE%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>议会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6</t>
+  </si>
+  <si>
+    <t>国家</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%88%E6%B3%95%E6%80%A7</t>
+  </si>
+  <si>
+    <t>合法性</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%8B%E6%80%9D%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>马克思主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%B6%E7%BA%A7</t>
+  </si>
+  <si>
+    <t>阶级</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%B6%E7%BA%A7%E6%96%97%E4%BA%89</t>
+  </si>
+  <si>
+    <t>阶级斗争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%97%E5%AE%81</t>
+  </si>
+  <si>
+    <t>列宁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E6%B3%BD%E4%B8%9C</t>
+  </si>
+  <si>
+    <t>毛泽东</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%B9%86%E7%88%BE%C2%B7%E4%BA%A8%E5%BB%B7%E9%A0%93</t>
+  </si>
+  <si>
+    <t>塞缪尔·亨廷顿</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9D%A9%E5%91%BD</t>
+  </si>
+  <si>
+    <t>革命</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>民族主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%9D%E5%9B%BD%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>帝国主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%A9%E9%BB%A8%E5%88%B6</t>
+  </si>
+  <si>
+    <t>两党制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%85%9A%E5%88%B6</t>
+  </si>
+  <si>
+    <t>多党制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E5%85%9A%E5%88%B6</t>
+  </si>
+  <si>
+    <t>一党制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>欧洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>英国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>法国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9</t>
+  </si>
+  <si>
+    <t>意大利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E9%BB%A8%E5%88%B6</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94</t>
+  </si>
+  <si>
+    <t>苏联</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%81%AF%E5%85%B1%E7%94%A2%E9%BB%A8</t>
+  </si>
+  <si>
+    <t>苏联共产党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>德国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%B2%B9%E9%BB%A8</t>
+  </si>
+  <si>
+    <t>纳粹党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%80%89%E6%9D%83</t>
+  </si>
+  <si>
+    <t>普选权</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD%E8%AE%AE%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>英国议会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%88%B6</t>
+  </si>
+  <si>
+    <t>共和制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%9A%87%E9%BB%A8</t>
+  </si>
+  <si>
+    <t>保皇党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%AC%8A%E9%BB%A8</t>
+  </si>
+  <si>
+    <t>民权党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%89%98%E5%88%A9%E5%85%9A</t>
+  </si>
+  <si>
+    <t>托利党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BC%9D%E6%A0%BC%E9%BB%A8_(%E8%8B%B1%E5%9C%8B)</t>
+  </si>
+  <si>
+    <t>辉格党 (英国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%89%E8%8D%A3%E9%9D%A9%E5%91%BD</t>
+  </si>
+  <si>
+    <t>光荣革命</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E7%AB%8B%E5%AE%AA%E5%88%B6</t>
+  </si>
+  <si>
+    <t>君主立宪制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%AE%88%E9%BB%A8_(%E8%8B%B1%E5%9C%8B)</t>
+  </si>
+  <si>
+    <t>保守党 (英国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%85%9A_(%E8%8B%B1%E5%9B%BD)</t>
+  </si>
+  <si>
+    <t>自由党 (英国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E9%BB%A8_(%E8%8B%B1%E5%9C%8B)</t>
+  </si>
+  <si>
+    <t>工党 (英国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%B0%91%E4%B8%BB%E5%85%9A_(%E8%8B%B1%E5%9B%BD)</t>
+  </si>
+  <si>
+    <t>自由民主党 (英国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/2010%E5%B9%B4%E8%8B%B1%E5%9C%8B%E5%A4%A7%E9%81%B8</t>
+  </si>
+  <si>
+    <t>2010年英国大选</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E6%94%BF%E5%BA%9C</t>
+  </si>
+  <si>
+    <t>联合政府</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E5%85%9A</t>
+  </si>
+  <si>
+    <t>联邦党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%85%B1%E5%92%8C%E5%85%9A</t>
+  </si>
+  <si>
+    <t>民主共和党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
+  </si>
+  <si>
+    <t>民主党 (美国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
+  </si>
+  <si>
+    <t>共和党 (美国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%A4%A7%E9%9D%A9%E5%91%BD</t>
+  </si>
+  <si>
+    <t>法国大革命</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%90%E6%89%AC%E4%BF%B1%E4%B9%90%E9%83%A8</t>
+  </si>
+  <si>
+    <t>斐扬俱乐部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E4%BC%A6%E7%89%B9%E6%B4%BE</t>
+  </si>
+  <si>
+    <t>吉伦特派</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%90%84%E8%B3%93%E9%BB%A8</t>
+  </si>
+  <si>
+    <t>雅各宾党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%BF%E7%A0%B4%E4%BB%91%E4%B8%80%E4%B8%96</t>
+  </si>
+  <si>
+    <t>拿破仑一世</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%85%B0%E8%A5%BF%E7%AC%AC%E4%BA%8C%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>法兰西第二共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E5%85%9A</t>
+  </si>
+  <si>
+    <t>社会党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%A9%E8%BC%AA%E6%8A%95%E7%A5%A8%E5%88%B6</t>
+  </si>
+  <si>
+    <t>两轮投票制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%96%93%E5%81%8F%E5%B7%A6</t>
+  </si>
+  <si>
+    <t>中间偏左</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E7%A4%BE%E4%BC%9A%E5%85%9A</t>
+  </si>
+  <si>
+    <t>法国社会党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%96%93%E5%81%8F%E5%8F%B3</t>
+  </si>
+  <si>
+    <t>中间偏右</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%88%B4%E9%AB%98%E6%A8%82%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>戴高乐主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E5%85%B1%E5%92%8C%E9%BB%A8</t>
+  </si>
+  <si>
+    <t>法国共和党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%B0%91%E9%81%8B%E5%8B%95%E8%81%AF%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>人民运动联盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%B2%81%E5%A3%AB</t>
+  </si>
+  <si>
+    <t>普鲁士</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD%E7%A4%BE%E4%BC%9A%E6%B0%91%E4%B8%BB%E5%85%9A</t>
+  </si>
+  <si>
+    <t>德国社会民主党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%AD%8F%E7%8E%9B%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>魏玛共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E7%89%B9%E5%8B%92</t>
+  </si>
+  <si>
+    <t>希特勒</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%B2%B9%E5%85%9A</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E7%AB%8B%E5%88%B6</t>
+  </si>
+  <si>
+    <t>联立制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E8%81%AF%E9%82%A6%E8%AD%B0%E9%99%A2</t>
+  </si>
+  <si>
+    <t>德国联邦议院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E7%B4%A2%E9%87%8C%E5%B0%BC</t>
+  </si>
+  <si>
+    <t>墨索里尼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E6%B3%95%E8%A5%BF%E6%96%AF%E5%85%9A</t>
+  </si>
+  <si>
+    <t>国家法西斯党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E4%BE%8B%E4%BB%A3%E8%A1%A8%E5%88%B6</t>
+  </si>
+  <si>
+    <t>比例代表制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E5%A4%A9%E4%B8%BB%E6%95%99%E6%B0%91%E4%B8%BB%E5%85%9A</t>
+  </si>
+  <si>
+    <t>意大利天主教民主党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E5%85%B1%E4%BA%A7%E5%85%9A</t>
+  </si>
+  <si>
+    <t>意大利共产党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E6%89%8B%E9%BB%A8</t>
+  </si>
+  <si>
+    <t>黑手党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E9%BB%A8_(%E7%BE%A9%E5%A4%A7%E5%88%A9)</t>
+  </si>
+  <si>
+    <t>民主党 (义大利)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E6%98%9F%E9%81%8B%E5%8B%95</t>
+  </si>
+  <si>
+    <t>五星运动</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E5%8A%9B%E9%87%8F%E9%BB%A8</t>
+  </si>
+  <si>
+    <t>意大利力量党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B3%E6%B4%BE%E6%B0%91%E7%B2%B9%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>右派民粹主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%96%B9%E8%81%AF%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>北方联盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E6%94%BF%E9%BB%A8</t>
+  </si>
+  <si>
+    <t>日本政党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E6%B2%BB%E7%BB%B4%E6%96%B0</t>
+  </si>
+  <si>
+    <t>明治维新</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%B0%91%E6%9D%83%E8%BF%90%E5%8A%A8</t>
+  </si>
+  <si>
+    <t>自由民权运动</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/55%E5%B9%B4%E9%AB%94%E5%88%B6</t>
+  </si>
+  <si>
+    <t>55年体制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%B0%91%E4%B8%BB%E9%BB%A8_(%E6%97%A5%E6%9C%AC)</t>
+  </si>
+  <si>
+    <t>自由民主党 (日本)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E7%A4%BE%E4%BC%9A%E5%85%9A</t>
+  </si>
+  <si>
+    <t>日本社会党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%B8%9A%E9%9D%A9%E5%91%BD</t>
+  </si>
+  <si>
+    <t>工业革命</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E4%BA%A7%E9%98%B6%E7%BA%A7</t>
+  </si>
+  <si>
+    <t>无产阶级</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%8B%E6%80%9D</t>
+  </si>
+  <si>
+    <t>马克思</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%81%A9%E6%A0%BC%E6%96%AF</t>
+  </si>
+  <si>
+    <t>恩格斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E7%94%A2%E4%B8%BB%E7%BE%A9%E8%80%85%E5%90%8C%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>共产主义者同盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E5%9B%BD%E9%99%85</t>
+  </si>
+  <si>
+    <t>第一国际</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%B2%81%E5%A1%9E%E5%B0%94</t>
+  </si>
+  <si>
+    <t>布鲁塞尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89%E5%B7%A5%E4%BA%BA%E5%85%9A</t>
+  </si>
+  <si>
+    <t>德国社会主义工人党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E6%B0%91%E4%B8%BB%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>社会民主主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%B7%A5%E4%BA%BA%E5%85%9A</t>
+  </si>
+  <si>
+    <t>法国工人党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%BA%BA%E9%BB%A8</t>
+  </si>
+  <si>
+    <t>工人党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E6%B0%91%E4%B8%BB%E5%85%9A</t>
+  </si>
+  <si>
+    <t>社会民主党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%9B%BD%E7%A4%BE%E4%BC%9A%E6%B0%91%E4%B8%BB%E5%B7%A5%E5%85%9A</t>
+  </si>
+  <si>
+    <t>俄国社会民主工党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%B0%94%E4%BB%80%E7%BB%B4%E5%85%8B</t>
+  </si>
+  <si>
+    <t>布尔什维克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E4%BB%80%E7%BB%B4%E5%85%8B</t>
+  </si>
+  <si>
+    <t>孟什维克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E8%81%94%E7%9B%9F%E5%85%B1%E4%BA%A7%E5%85%9A%EF%BC%88%E5%B8%83%E5%B0%94%E4%BB%80%E7%BB%B4%E5%85%8B%EF%BC%89</t>
+  </si>
+  <si>
+    <t>全联盟共产党（布尔什维克）</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94%E5%85%B1%E4%BA%A7%E5%85%9A</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%9B%BD%E9%9D%A9%E5%91%BD</t>
+  </si>
+  <si>
+    <t>俄国革命</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%8F%A4</t>
+  </si>
+  <si>
+    <t>蒙古</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97</t>
+  </si>
+  <si>
+    <t>越南</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%96%AF%E6%8B%89%E5%A4%AB</t>
+  </si>
+  <si>
+    <t>南斯拉夫</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>中国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94%E8%A7%A3%E4%BD%93</t>
+  </si>
+  <si>
+    <t>苏联解体</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%9C%BA%E7%BB%8F%E6%B5%8E</t>
+  </si>
+  <si>
+    <t>市场经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%91%E5%B1%95%E4%B8%AD%E5%9B%BD%E5%AE%B6</t>
+  </si>
+  <si>
+    <t>发展中国家</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E7%8B%AC%E7%AB%8B%E8%BF%90%E5%8A%A8</t>
+  </si>
+  <si>
+    <t>民族独立运动</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%A1%E9%A0%AD%E6%94%BF%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>寡头政治</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%8F%8A</t>
+  </si>
+  <si>
+    <t>埃及</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1</t>
+  </si>
+  <si>
+    <t>新加坡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%A1%91%E6%AF%94%E5%85%8B</t>
+  </si>
+  <si>
+    <t>莫桑比克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%93%A5%E6%8B%89</t>
+  </si>
+  <si>
+    <t>安哥拉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B5%A4%E9%81%93%E5%87%A0%E5%86%85%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>赤道几内亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E5%B0%BC%E8%A5%BF%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>印度尼西亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%9B%E6%94%BF%E5%BA%9C</t>
+  </si>
+  <si>
+    <t>军政府</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%89%8E%E4%BC%8A%E5%B0%94</t>
+  </si>
+  <si>
+    <t>扎伊尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E9%A9%AC%E9%87%8C</t>
+  </si>
+  <si>
+    <t>索马里</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>泰国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%85%9A%E5%88%B6%E5%BA%A6</t>
+  </si>
+  <si>
+    <t>政党制度</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%8E%8B%E9%BB%A8</t>
+  </si>
+  <si>
+    <t>保王党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%9C%B0%E5%85%B1%E7%94%A2%E9%BB%A8</t>
+  </si>
+  <si>
+    <t>海地共产党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E5%9C%8B%E6%94%BF%E9%BB%A8</t>
+  </si>
+  <si>
+    <t>韩国政党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%93%B2%E7%A7%80</t>
+  </si>
+  <si>
+    <t>安哲秀</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%B0%91%E4%B9%8B%E9%BB%A8</t>
+  </si>
+  <si>
+    <t>国民之党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%90%8C%E6%B0%91%E4%B8%BB%E5%85%9A</t>
+  </si>
+  <si>
+    <t>共同民主党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%B4%E6%A7%BF%E6%83%A0%E5%BC%B9%E5%8A%BE%E6%A1%88</t>
+  </si>
+  <si>
+    <t>朴槿惠弹劾案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E9%BB%A8</t>
+  </si>
+  <si>
+    <t>正党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%9C%8B%E5%AE%B6%E9%BB%A8</t>
+  </si>
+  <si>
+    <t>新国家党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E9%9F%93%E5%9C%8B%E9%BB%A8</t>
+  </si>
+  <si>
+    <t>自由韩国党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B3%95</t>
+  </si>
+  <si>
+    <t>非法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E5%85%B1%E7%94%A2%E9%BB%A8</t>
+  </si>
+  <si>
+    <t>德国共产党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%A6%E7%BF%BC</t>
+  </si>
+  <si>
+    <t>左翼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B3%E7%BF%BC</t>
+  </si>
+  <si>
+    <t>右翼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>社会主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E4%BA%A7%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>共产主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%B8%82%E5%A0%B4</t>
+  </si>
+  <si>
+    <t>自由市场</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%B2%BF%E6%98%93</t>
+  </si>
+  <si>
+    <t>自由贸易</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%A0%B4%E7%B6%93%E6%BF%9F</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E7%94%A2%E4%B8%BB%E7%BE%A9%E6%94%BF%E9%BB%A8</t>
+  </si>
+  <si>
+    <t>共产主义政党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89%E6%94%BF%E5%85%9A</t>
+  </si>
+  <si>
+    <t>民主社会主义政党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%AE%88%E4%B8%BB%E4%B9%89%E6%94%BF%E5%85%9A</t>
+  </si>
+  <si>
+    <t>保守主义政党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%88%98</t>
+  </si>
+  <si>
+    <t>冷战</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>民主社会主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89%E5%9B%BD%E5%AE%B6</t>
+  </si>
+  <si>
+    <t>社会主义国家</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E5%9B%BD%E9%99%85</t>
+  </si>
+  <si>
+    <t>第二国际</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%B9%E8%89%AF%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>改良主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E5%85%9A%E5%9B%BD%E9%99%85</t>
+  </si>
+  <si>
+    <t>社会党国际</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B5%84%E6%9C%AC%E4%B8%BB%E4%B9%89%E5%9B%BD%E5%AE%B6</t>
+  </si>
+  <si>
+    <t>资本主义国家</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%91%E8%BE%BE%E5%9B%BD%E5%AE%B6</t>
+  </si>
+  <si>
+    <t>发达国家</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E6%B0%91%E4%B8%BB%E8%81%94%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>国际民主联盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E6%B0%91%E4%B8%BB%E8%81%94%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>基督教民主联盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E5%85%9A%E7%8B%AC%E5%A4%A7</t>
+  </si>
+  <si>
+    <t>一党独大</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>欧盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%B4%8D%E7%B2%B9</t>
+  </si>
+  <si>
+    <t>新纳粹</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A5%B5%E5%8F%B3%E6%B4%BE</t>
+  </si>
+  <si>
+    <t>极右派</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%BF%E5%85%9A</t>
+  </si>
+  <si>
+    <t>绿党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E7%BB%BF%E5%85%9A</t>
+  </si>
+  <si>
+    <t>欧洲绿党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E6%A0%BC%E5%85%B0%E6%B0%91%E6%97%8F%E5%85%9A</t>
+  </si>
+  <si>
+    <t>苏格兰民族党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B</t>
+  </si>
+  <si>
+    <t>法律</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E8%87%AA%E6%B0%91%E5%85%9A</t>
+  </si>
+  <si>
+    <t>日本自民党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%85%B1%E5%92%8C%E5%85%9A</t>
+  </si>
+  <si>
+    <t>美国共和党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%BF%9B%E6%AD%A5%E5%85%9A</t>
+  </si>
+  <si>
+    <t>美国进步党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A8%E9%87%8E%E9%BB%A8</t>
+  </si>
+  <si>
+    <t>在野党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%82%E6%94%BF%E5%85%9A</t>
+  </si>
+  <si>
+    <t>参政党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E6%9C%83</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E9%9B%86%E4%B8%AD%E5%88%B6</t>
+  </si>
+  <si>
+    <t>民主集中制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%85%B1%E7%94%A2%E9%BB%A8</t>
+  </si>
+  <si>
+    <t>中国共产党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E5%8B%9E%E5%8B%95%E9%BB%A8</t>
+  </si>
+  <si>
+    <t>朝鲜劳动党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E5%85%B1%E7%94%A2%E9%BB%A8</t>
+  </si>
+  <si>
+    <t>越南共产党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4%E5%85%B1%E7%94%A2%E9%BB%A8</t>
+  </si>
+  <si>
+    <t>古巴共产党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%9C%8B%E6%B0%91%E9%BB%A8</t>
+  </si>
+  <si>
+    <t>中国国民党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A0%98%E8%A2%96</t>
+  </si>
+  <si>
+    <t>领袖</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%83%E9%A6%96_(%E7%B4%8D%E7%B2%B9%E5%BE%B7%E5%9C%8B)</t>
+  </si>
+  <si>
+    <t>元首 (纳粹德国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B0%91%E4%B8%BB%E5%85%9A</t>
+  </si>
+  <si>
+    <t>美国民主党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%85%B1%E5%92%8C%E9%BB%A8</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E8%87%AA%E6%B0%91%E9%BB%A8</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E7%A4%BE%E6%9C%83%E9%BB%A8</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>中华民国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3</t>
+  </si>
+  <si>
+    <t>台湾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E9%80%B2%E6%AD%A5%E9%BB%A8</t>
+  </si>
+  <si>
+    <t>民主进步党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E5%85%9A%E4%B8%93%E6%94%BF</t>
+  </si>
+  <si>
+    <t>一党专政</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%89%9B%E6%80%A7%E6%94%BF%E9%BB%A8</t>
+  </si>
+  <si>
+    <t>刚性政党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9F%94%E6%80%A7%E6%94%BF%E9%BB%A8</t>
+  </si>
+  <si>
+    <t>柔性政党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
+  </si>
+  <si>
+    <t>加拿大</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>澳大利亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A5%BF%E8%98%AD</t>
+  </si>
+  <si>
+    <t>新西兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E9%BB%A8%E6%94%BF%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>政党政治</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%9A%E5%91%98</t>
+  </si>
+  <si>
+    <t>党员</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%85%9A%E6%A0%87%E5%BF%97</t>
+  </si>
+  <si>
+    <t>政党标志</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E9%BB%A8%E7%8D%A8%E5%A4%A7</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>中华人民共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%81%B8%E8%88%89%E5%88%B6%E5%BA%A6</t>
+  </si>
+  <si>
+    <t>选举制度</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6</t>
+  </si>
+  <si>
+    <t>印度</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%A4%A7%E9%BB%A8</t>
+  </si>
+  <si>
+    <t>国大党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E4%BA%BA%E6%B0%91%E9%BB%A8</t>
+  </si>
+  <si>
+    <t>印度人民党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95</t>
+  </si>
+  <si>
+    <t>立法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
+  </si>
+  <si>
+    <t>义大利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%AD%81%E5%8C%97%E5%85%8B%E4%BA%BA%E9%BB%A8</t>
+  </si>
+  <si>
+    <t>魁北克人党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E9%BB%A8</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%9C%AC</t>
+  </si>
+  <si>
+    <t>人本</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E4%BF%9D</t>
+  </si>
+  <si>
+    <t>环保</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF</t>
+  </si>
+  <si>
+    <t>香港</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%85%9A%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>政党列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E9%BB%A8%E8%BC%AA%E6%9B%BF</t>
+  </si>
+  <si>
+    <t>政党轮替</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%8F%82%E4%B8%8E</t>
+  </si>
+  <si>
+    <t>政治参与</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%81%8E%E5%BA%A6%E7%A4%BE%E6%9C%83%E5%8C%96</t>
+  </si>
+  <si>
+    <t>过度社会化</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%95%86%E5%8B%99%E5%8D%B0%E6%9B%B8%E9%A4%A8%EF%BC%88%E9%A6%99%E6%B8%AF%EF%BC%89%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
+  </si>
+  <si>
+    <t>商务印书馆（香港）有限公司</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%8C%A2%E7%A9%86</t>
+  </si>
+  <si>
+    <t>钱穆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9F%B3%E7%BF%BC%E8%AC%80</t>
+  </si>
+  <si>
+    <t>柳翼谋</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E6%96%87%E5%8C%96%E5%8F%B2_(%E6%9F%B3%E8%A9%92%E5%BE%B5)</t>
+  </si>
+  <si>
+    <t>中国文化史 (柳诒征)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
+  </si>
+  <si>
+    <t>权威控制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
+  </si>
+  <si>
+    <t>整合规范文档</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
+  </si>
+  <si>
+    <t>国立国会图书馆</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%85%9A</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>政治</t>
-  </si>
-  <si>
-    <t>政策_政策_政治_政党</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%B8%E5%9F%BA%E6%9C%AC%E4%B8%BB%E9%A1%8C%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>政治學基本主題列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>政治经济学</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Political_history</t>
-  </si>
-  <si>
-    <t>en-Political history</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Political_history_of_the_world</t>
-  </si>
-  <si>
-    <t>en-Political history of the world</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%93%B2%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>政治哲学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E4%BD%93</t>
-  </si>
-  <si>
-    <t>政体</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E6%94%BF%E5%BA%9C%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>无政府主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%8E%E9%82%A6</t>
-  </si>
-  <si>
-    <t>城邦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB</t>
-  </si>
-  <si>
-    <t>民主</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Federacy</t>
-  </si>
-  <si>
-    <t>en-Federacy</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%81%E5%BB%BA%E5%88%B6%E5%BA%A6_(%E6%AD%90%E6%B4%B2)</t>
-  </si>
-  <si>
-    <t>封建制度 (歐洲)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E8%A3%81%E6%94%BF%E4%BD%93</t>
-  </si>
-  <si>
-    <t>独裁政体</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%93%A1%E6%9C%83%E5%88%B6</t>
-  </si>
-  <si>
-    <t>委員會制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E8%8B%B1%E6%94%BF%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>精英政治</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E5%88%B6</t>
-  </si>
-  <si>
-    <t>君主制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AE%AE%E4%BC%9A%E5%88%B6</t>
-  </si>
-  <si>
-    <t>议会制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%80%BB%E7%BB%9F%E5%88%B6</t>
-  </si>
-  <si>
-    <t>总统制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E6%80%BB%E7%BB%9F%E5%88%B6</t>
-  </si>
-  <si>
-    <t>半总统制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E6%9D%83%E6%94%BF%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>神权政治</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>政治学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%A6%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>政治学家</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E5%85%B3%E7%B3%BB%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>国际关系学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%97%9C%E4%BF%82%E7%90%86%E8%AB%96</t>
-  </si>
-  <si>
-    <t>國際關係理論</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E8%BE%83%E6%94%BF%E6%B2%BB%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>比较政治学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E8%A1%8C%E6%94%BF%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>公共行政学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E5%83%9A%E5%88%B6</t>
-  </si>
-  <si>
-    <t>官僚制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E5%B1%82%E5%AE%98%E5%83%9A</t>
-  </si>
-  <si>
-    <t>基层官僚</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Adhocracy</t>
-  </si>
-  <si>
-    <t>en-Adhocracy</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E7%AD%96</t>
-  </si>
-  <si>
-    <t>政策</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E6%94%BF%E7%AD%96</t>
-  </si>
-  <si>
-    <t>公共政策</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Public_policy_doctrine</t>
-  </si>
-  <si>
-    <t>en-Public policy doctrine</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E7%9B%8A</t>
-  </si>
-  <si>
-    <t>公益</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E4%BA%A4%E6%94%BF%E7%AD%96</t>
-  </si>
-  <si>
-    <t>外交政策</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
-  </si>
-  <si>
-    <t>權力分立</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
-  </si>
-  <si>
-    <t>立法机构</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E6%9C%BA%E6%9E%84</t>
-  </si>
-  <si>
-    <t>行政机构</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E6%A9%9F%E6%A7%8B</t>
-  </si>
-  <si>
-    <t>司法機構</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%80%89%E4%B8%BE%E5%A7%94%E5%91%98%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>中央选举委员会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%9D%83</t>
-  </si>
-  <si>
-    <t>主权</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Theories_of_political_behavior</t>
-  </si>
-  <si>
-    <t>en-Theories of political behavior</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%BF%83%E7%90%86%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>政治心理學</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Biology_and_political_orientation</t>
-  </si>
-  <si>
-    <t>en-Biology and political orientation</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Political_organisation</t>
-  </si>
-  <si>
-    <t>en-Political organisation</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8A%95%E7%A5%A8%E5%88%B6%E5%BA%A6</t>
-  </si>
-  <si>
-    <t>投票制度</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%80%89%E4%B8%BE</t>
-  </si>
-  <si>
-    <t>选举</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8A%95%E7%A5%A8</t>
-  </si>
-  <si>
-    <t>投票</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>联邦主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C</t>
-  </si>
-  <si>
-    <t>政府</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E8%AF%86%E5%BD%A2%E6%80%81</t>
-  </si>
-  <si>
-    <t>意识形态</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Template_talk:Politics</t>
-  </si>
-  <si>
-    <t>Template talk-Politics</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%B7%E6%94%BF%E9%BB%A8</t>
-  </si>
-  <si>
-    <t>執政黨</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E6%80%9D%E6%83%B3</t>
-  </si>
-  <si>
-    <t>政治思想</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E7%9B%8A</t>
-  </si>
-  <si>
-    <t>利益</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BB%A3%E8%AD%B0%E5%88%B6%E6%B0%91%E4%B8%BB</t>
-  </si>
-  <si>
-    <t>代議制民主</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%81%B8%E8%88%89</t>
-  </si>
-  <si>
-    <t>選舉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E8%81%AF%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>政治聯盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9F%B7%E6%94%BF</t>
-  </si>
-  <si>
-    <t>聯合執政</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E8%AD%98%E5%BD%A2%E6%85%8B</t>
-  </si>
-  <si>
-    <t>意識形態</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E6%B4%BE%E5%88%A5</t>
-  </si>
-  <si>
-    <t>政治派別</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%BE%B7%E8%92%99%C2%B7%E6%9F%8F%E5%85%8B</t>
-  </si>
-  <si>
-    <t>埃德蒙·柏克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E5%88%A9%E7%9B%8A</t>
-  </si>
-  <si>
-    <t>国家利益</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%B0%91%E5%9B%A2%E4%BD%93</t>
-  </si>
-  <si>
-    <t>人民团体</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%8B%E6%9C%9D</t>
-  </si>
-  <si>
-    <t>宋朝</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AB%96%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>論語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%BC%A2</t>
-  </si>
-  <si>
-    <t>東漢</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%9A%E9%94%A2%E4%B9%8B%E7%A5%B8</t>
-  </si>
-  <si>
-    <t>党锢之祸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%8B%E4%BB%81%E5%AE%97</t>
-  </si>
-  <si>
-    <t>宋仁宗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E9%99%BD%E4%BF%AE</t>
-  </si>
-  <si>
-    <t>歐陽修</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%8B%E9%BB%A8%E8%AB%96</t>
-  </si>
-  <si>
-    <t>朋黨論</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%8B%E7%A5%9E%E5%AE%97</t>
-  </si>
-  <si>
-    <t>宋神宗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%88%8A%E9%BB%A8%E7%88%AD</t>
-  </si>
-  <si>
-    <t>新舊黨爭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>中國人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E6%94%BF%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>民主政治</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E6%B0%91%E6%94%BF%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>全民政治</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AE%AE%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>议会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>国家</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%88%E6%B3%95%E6%80%A7</t>
-  </si>
-  <si>
-    <t>合法性</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%8B%E6%80%9D%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>马克思主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%B6%E7%BA%A7</t>
-  </si>
-  <si>
-    <t>阶级</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%B6%E7%BA%A7%E6%96%97%E4%BA%89</t>
-  </si>
-  <si>
-    <t>阶级斗争</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%97%E5%AE%81</t>
-  </si>
-  <si>
-    <t>列宁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E6%B3%BD%E4%B8%9C</t>
-  </si>
-  <si>
-    <t>毛泽东</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%B9%86%E7%88%BE%C2%B7%E4%BA%A8%E5%BB%B7%E9%A0%93</t>
-  </si>
-  <si>
-    <t>塞繆爾·亨廷頓</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%A9%E5%91%BD</t>
-  </si>
-  <si>
-    <t>革命</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>民族主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%9D%E5%9B%BD%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>帝国主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%A9%E9%BB%A8%E5%88%B6</t>
-  </si>
-  <si>
-    <t>兩黨制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%85%9A%E5%88%B6</t>
-  </si>
-  <si>
-    <t>多党制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E5%85%9A%E5%88%B6</t>
-  </si>
-  <si>
-    <t>一党制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>歐洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>英國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>法國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9</t>
-  </si>
-  <si>
-    <t>意大利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E9%BB%A8%E5%88%B6</t>
-  </si>
-  <si>
-    <t>多黨制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94</t>
-  </si>
-  <si>
-    <t>苏联</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%81%AF%E5%85%B1%E7%94%A2%E9%BB%A8</t>
-  </si>
-  <si>
-    <t>蘇聯共產黨</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>德國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%B2%B9%E9%BB%A8</t>
-  </si>
-  <si>
-    <t>納粹黨</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%80%89%E6%9D%83</t>
-  </si>
-  <si>
-    <t>普选权</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>英国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD%E8%AE%AE%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>英国议会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%88%B6</t>
-  </si>
-  <si>
-    <t>共和制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%9A%87%E9%BB%A8</t>
-  </si>
-  <si>
-    <t>保皇黨</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%AC%8A%E9%BB%A8</t>
-  </si>
-  <si>
-    <t>民權黨</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%89%98%E5%88%A9%E5%85%9A</t>
-  </si>
-  <si>
-    <t>托利党</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BC%9D%E6%A0%BC%E9%BB%A8_(%E8%8B%B1%E5%9C%8B)</t>
-  </si>
-  <si>
-    <t>輝格黨 (英國)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%89%E8%8D%A3%E9%9D%A9%E5%91%BD</t>
-  </si>
-  <si>
-    <t>光荣革命</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E7%AB%8B%E5%AE%AA%E5%88%B6</t>
-  </si>
-  <si>
-    <t>君主立宪制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%AE%88%E9%BB%A8_(%E8%8B%B1%E5%9C%8B)</t>
-  </si>
-  <si>
-    <t>保守黨 (英國)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%85%9A_(%E8%8B%B1%E5%9B%BD)</t>
-  </si>
-  <si>
-    <t>自由党 (英国)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E9%BB%A8_(%E8%8B%B1%E5%9C%8B)</t>
-  </si>
-  <si>
-    <t>工黨 (英國)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%B0%91%E4%B8%BB%E5%85%9A_(%E8%8B%B1%E5%9B%BD)</t>
-  </si>
-  <si>
-    <t>自由民主党 (英国)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/2010%E5%B9%B4%E8%8B%B1%E5%9C%8B%E5%A4%A7%E9%81%B8</t>
-  </si>
-  <si>
-    <t>2010年英國大選</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E6%94%BF%E5%BA%9C</t>
-  </si>
-  <si>
-    <t>聯合政府</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>美国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E5%85%9A</t>
-  </si>
-  <si>
-    <t>联邦党</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%85%B1%E5%92%8C%E5%85%9A</t>
-  </si>
-  <si>
-    <t>民主共和党</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
-  </si>
-  <si>
-    <t>民主党 (美国)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
-  </si>
-  <si>
-    <t>共和黨 (美國)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>法国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%A4%A7%E9%9D%A9%E5%91%BD</t>
-  </si>
-  <si>
-    <t>法国大革命</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%90%E6%89%AC%E4%BF%B1%E4%B9%90%E9%83%A8</t>
-  </si>
-  <si>
-    <t>斐扬俱乐部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E4%BC%A6%E7%89%B9%E6%B4%BE</t>
-  </si>
-  <si>
-    <t>吉伦特派</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%90%84%E8%B3%93%E9%BB%A8</t>
-  </si>
-  <si>
-    <t>雅各賓黨</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%BF%E7%A0%B4%E4%BB%91%E4%B8%80%E4%B8%96</t>
-  </si>
-  <si>
-    <t>拿破仑一世</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%85%B0%E8%A5%BF%E7%AC%AC%E4%BA%8C%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>法兰西第二共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E5%85%9A</t>
-  </si>
-  <si>
-    <t>社会党</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%A9%E8%BC%AA%E6%8A%95%E7%A5%A8%E5%88%B6</t>
-  </si>
-  <si>
-    <t>兩輪投票制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%96%93%E5%81%8F%E5%B7%A6</t>
-  </si>
-  <si>
-    <t>中間偏左</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E7%A4%BE%E4%BC%9A%E5%85%9A</t>
-  </si>
-  <si>
-    <t>法国社会党</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%96%93%E5%81%8F%E5%8F%B3</t>
-  </si>
-  <si>
-    <t>中間偏右</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%88%B4%E9%AB%98%E6%A8%82%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>戴高樂主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E5%85%B1%E5%92%8C%E9%BB%A8</t>
-  </si>
-  <si>
-    <t>法國共和黨</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%B0%91%E9%81%8B%E5%8B%95%E8%81%AF%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>人民運動聯盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%B2%81%E5%A3%AB</t>
-  </si>
-  <si>
-    <t>普鲁士</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD%E7%A4%BE%E4%BC%9A%E6%B0%91%E4%B8%BB%E5%85%9A</t>
-  </si>
-  <si>
-    <t>德国社会民主党</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%AD%8F%E7%8E%9B%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>魏玛共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E7%89%B9%E5%8B%92</t>
-  </si>
-  <si>
-    <t>希特勒</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%B2%B9%E5%85%9A</t>
-  </si>
-  <si>
-    <t>纳粹党</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E7%AB%8B%E5%88%B6</t>
-  </si>
-  <si>
-    <t>聯立制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E8%81%AF%E9%82%A6%E8%AD%B0%E9%99%A2</t>
-  </si>
-  <si>
-    <t>德國聯邦議院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E7%B4%A2%E9%87%8C%E5%B0%BC</t>
-  </si>
-  <si>
-    <t>墨索里尼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E6%B3%95%E8%A5%BF%E6%96%AF%E5%85%9A</t>
-  </si>
-  <si>
-    <t>国家法西斯党</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E4%BE%8B%E4%BB%A3%E8%A1%A8%E5%88%B6</t>
-  </si>
-  <si>
-    <t>比例代表制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E5%A4%A9%E4%B8%BB%E6%95%99%E6%B0%91%E4%B8%BB%E5%85%9A</t>
-  </si>
-  <si>
-    <t>意大利天主教民主党</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E5%85%B1%E4%BA%A7%E5%85%9A</t>
-  </si>
-  <si>
-    <t>意大利共产党</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E6%89%8B%E9%BB%A8</t>
-  </si>
-  <si>
-    <t>黑手黨</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E9%BB%A8_(%E7%BE%A9%E5%A4%A7%E5%88%A9)</t>
-  </si>
-  <si>
-    <t>民主黨 (義大利)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E6%98%9F%E9%81%8B%E5%8B%95</t>
-  </si>
-  <si>
-    <t>五星運動</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E5%8A%9B%E9%87%8F%E9%BB%A8</t>
-  </si>
-  <si>
-    <t>意大利力量黨</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B3%E6%B4%BE%E6%B0%91%E7%B2%B9%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>右派民粹主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%96%B9%E8%81%AF%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>北方聯盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E6%94%BF%E9%BB%A8</t>
-  </si>
-  <si>
-    <t>日本政黨</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E6%B2%BB%E7%BB%B4%E6%96%B0</t>
-  </si>
-  <si>
-    <t>明治维新</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%B0%91%E6%9D%83%E8%BF%90%E5%8A%A8</t>
-  </si>
-  <si>
-    <t>自由民权运动</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/55%E5%B9%B4%E9%AB%94%E5%88%B6</t>
-  </si>
-  <si>
-    <t>55年體制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%B0%91%E4%B8%BB%E9%BB%A8_(%E6%97%A5%E6%9C%AC)</t>
-  </si>
-  <si>
-    <t>自由民主黨 (日本)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E7%A4%BE%E4%BC%9A%E5%85%9A</t>
-  </si>
-  <si>
-    <t>日本社会党</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%B8%9A%E9%9D%A9%E5%91%BD</t>
-  </si>
-  <si>
-    <t>工业革命</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E4%BA%A7%E9%98%B6%E7%BA%A7</t>
-  </si>
-  <si>
-    <t>无产阶级</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%8B%E6%80%9D</t>
-  </si>
-  <si>
-    <t>马克思</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%81%A9%E6%A0%BC%E6%96%AF</t>
-  </si>
-  <si>
-    <t>恩格斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E7%94%A2%E4%B8%BB%E7%BE%A9%E8%80%85%E5%90%8C%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>共產主義者同盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E5%9B%BD%E9%99%85</t>
-  </si>
-  <si>
-    <t>第一国际</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%B2%81%E5%A1%9E%E5%B0%94</t>
-  </si>
-  <si>
-    <t>布鲁塞尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89%E5%B7%A5%E4%BA%BA%E5%85%9A</t>
-  </si>
-  <si>
-    <t>德国社会主义工人党</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E6%B0%91%E4%B8%BB%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>社会民主主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%B7%A5%E4%BA%BA%E5%85%9A</t>
-  </si>
-  <si>
-    <t>法国工人党</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%BA%BA%E9%BB%A8</t>
-  </si>
-  <si>
-    <t>工人黨</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E6%B0%91%E4%B8%BB%E5%85%9A</t>
-  </si>
-  <si>
-    <t>社会民主党</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%9B%BD%E7%A4%BE%E4%BC%9A%E6%B0%91%E4%B8%BB%E5%B7%A5%E5%85%9A</t>
-  </si>
-  <si>
-    <t>俄国社会民主工党</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%B0%94%E4%BB%80%E7%BB%B4%E5%85%8B</t>
-  </si>
-  <si>
-    <t>布尔什维克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E4%BB%80%E7%BB%B4%E5%85%8B</t>
-  </si>
-  <si>
-    <t>孟什维克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E8%81%94%E7%9B%9F%E5%85%B1%E4%BA%A7%E5%85%9A%EF%BC%88%E5%B8%83%E5%B0%94%E4%BB%80%E7%BB%B4%E5%85%8B%EF%BC%89</t>
-  </si>
-  <si>
-    <t>全联盟共产党（布尔什维克）</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94%E5%85%B1%E4%BA%A7%E5%85%9A</t>
-  </si>
-  <si>
-    <t>苏联共产党</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%9B%BD%E9%9D%A9%E5%91%BD</t>
-  </si>
-  <si>
-    <t>俄国革命</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%8F%A4</t>
-  </si>
-  <si>
-    <t>蒙古</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97</t>
-  </si>
-  <si>
-    <t>越南</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%96%AF%E6%8B%89%E5%A4%AB</t>
-  </si>
-  <si>
-    <t>南斯拉夫</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>中国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94%E8%A7%A3%E4%BD%93</t>
-  </si>
-  <si>
-    <t>苏联解体</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%9C%BA%E7%BB%8F%E6%B5%8E</t>
-  </si>
-  <si>
-    <t>市场经济</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%91%E5%B1%95%E4%B8%AD%E5%9B%BD%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>发展中国家</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E7%8B%AC%E7%AB%8B%E8%BF%90%E5%8A%A8</t>
-  </si>
-  <si>
-    <t>民族独立运动</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%A1%E9%A0%AD%E6%94%BF%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>寡頭政治</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%8F%8A</t>
-  </si>
-  <si>
-    <t>埃及</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1</t>
-  </si>
-  <si>
-    <t>新加坡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%A1%91%E6%AF%94%E5%85%8B</t>
-  </si>
-  <si>
-    <t>莫桑比克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%93%A5%E6%8B%89</t>
-  </si>
-  <si>
-    <t>安哥拉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B5%A4%E9%81%93%E5%87%A0%E5%86%85%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>赤道几内亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E5%B0%BC%E8%A5%BF%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>印度尼西亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%9B%E6%94%BF%E5%BA%9C</t>
-  </si>
-  <si>
-    <t>军政府</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%89%8E%E4%BC%8A%E5%B0%94</t>
-  </si>
-  <si>
-    <t>扎伊尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E9%A9%AC%E9%87%8C</t>
-  </si>
-  <si>
-    <t>索马里</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>泰国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%85%9A%E5%88%B6%E5%BA%A6</t>
-  </si>
-  <si>
-    <t>政党制度</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%8E%8B%E9%BB%A8</t>
-  </si>
-  <si>
-    <t>保王黨</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%9C%B0%E5%85%B1%E7%94%A2%E9%BB%A8</t>
-  </si>
-  <si>
-    <t>海地共產黨</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E5%9C%8B%E6%94%BF%E9%BB%A8</t>
-  </si>
-  <si>
-    <t>韓國政黨</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%93%B2%E7%A7%80</t>
-  </si>
-  <si>
-    <t>安哲秀</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%B0%91%E4%B9%8B%E9%BB%A8</t>
-  </si>
-  <si>
-    <t>國民之黨</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%90%8C%E6%B0%91%E4%B8%BB%E5%85%9A</t>
-  </si>
-  <si>
-    <t>共同民主党</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%B4%E6%A7%BF%E6%83%A0%E5%BC%B9%E5%8A%BE%E6%A1%88</t>
-  </si>
-  <si>
-    <t>朴槿惠弹劾案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E9%BB%A8</t>
-  </si>
-  <si>
-    <t>正黨</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%9C%8B%E5%AE%B6%E9%BB%A8</t>
-  </si>
-  <si>
-    <t>新國家黨</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E9%9F%93%E5%9C%8B%E9%BB%A8</t>
-  </si>
-  <si>
-    <t>自由韓國黨</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B3%95</t>
-  </si>
-  <si>
-    <t>非法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E5%85%B1%E7%94%A2%E9%BB%A8</t>
-  </si>
-  <si>
-    <t>德國共產黨</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%A6%E7%BF%BC</t>
-  </si>
-  <si>
-    <t>左翼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B3%E7%BF%BC</t>
-  </si>
-  <si>
-    <t>右翼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>社会主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E4%BA%A7%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>共产主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%B8%82%E5%A0%B4</t>
-  </si>
-  <si>
-    <t>自由市場</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%B2%BF%E6%98%93</t>
-  </si>
-  <si>
-    <t>自由貿易</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%A0%B4%E7%B6%93%E6%BF%9F</t>
-  </si>
-  <si>
-    <t>市場經濟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E7%94%A2%E4%B8%BB%E7%BE%A9%E6%94%BF%E9%BB%A8</t>
-  </si>
-  <si>
-    <t>共產主義政黨</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89%E6%94%BF%E5%85%9A</t>
-  </si>
-  <si>
-    <t>民主社会主义政党</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%AE%88%E4%B8%BB%E4%B9%89%E6%94%BF%E5%85%9A</t>
-  </si>
-  <si>
-    <t>保守主义政党</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%88%98</t>
-  </si>
-  <si>
-    <t>冷战</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>民主社会主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89%E5%9B%BD%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>社会主义国家</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E5%9B%BD%E9%99%85</t>
-  </si>
-  <si>
-    <t>第二国际</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%B9%E8%89%AF%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>改良主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E5%85%9A%E5%9B%BD%E9%99%85</t>
-  </si>
-  <si>
-    <t>社会党国际</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B5%84%E6%9C%AC%E4%B8%BB%E4%B9%89%E5%9B%BD%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>资本主义国家</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%91%E8%BE%BE%E5%9B%BD%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>发达国家</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E6%B0%91%E4%B8%BB%E8%81%94%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>国际民主联盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E6%B0%91%E4%B8%BB%E8%81%94%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>基督教民主联盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E5%85%9A%E7%8B%AC%E5%A4%A7</t>
-  </si>
-  <si>
-    <t>一党独大</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>歐盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%B4%8D%E7%B2%B9</t>
-  </si>
-  <si>
-    <t>新納粹</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A5%B5%E5%8F%B3%E6%B4%BE</t>
-  </si>
-  <si>
-    <t>極右派</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%BF%E5%85%9A</t>
-  </si>
-  <si>
-    <t>绿党</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E7%BB%BF%E5%85%9A</t>
-  </si>
-  <si>
-    <t>欧洲绿党</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E6%A0%BC%E5%85%B0%E6%B0%91%E6%97%8F%E5%85%9A</t>
-  </si>
-  <si>
-    <t>苏格兰民族党</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B</t>
-  </si>
-  <si>
-    <t>法律</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E8%87%AA%E6%B0%91%E5%85%9A</t>
-  </si>
-  <si>
-    <t>日本自民党</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%85%B1%E5%92%8C%E5%85%9A</t>
-  </si>
-  <si>
-    <t>美国共和党</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%BF%9B%E6%AD%A5%E5%85%9A</t>
-  </si>
-  <si>
-    <t>美国进步党</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A8%E9%87%8E%E9%BB%A8</t>
-  </si>
-  <si>
-    <t>在野黨</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%82%E6%94%BF%E5%85%9A</t>
-  </si>
-  <si>
-    <t>参政党</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E6%9C%83</t>
-  </si>
-  <si>
-    <t>議會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E9%9B%86%E4%B8%AD%E5%88%B6</t>
-  </si>
-  <si>
-    <t>民主集中制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%85%B1%E7%94%A2%E9%BB%A8</t>
-  </si>
-  <si>
-    <t>中國共產黨</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E5%8B%9E%E5%8B%95%E9%BB%A8</t>
-  </si>
-  <si>
-    <t>朝鮮勞動黨</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E5%85%B1%E7%94%A2%E9%BB%A8</t>
-  </si>
-  <si>
-    <t>越南共產黨</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4%E5%85%B1%E7%94%A2%E9%BB%A8</t>
-  </si>
-  <si>
-    <t>古巴共產黨</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%9C%8B%E6%B0%91%E9%BB%A8</t>
-  </si>
-  <si>
-    <t>中國國民黨</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A0%98%E8%A2%96</t>
-  </si>
-  <si>
-    <t>領袖</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%83%E9%A6%96_(%E7%B4%8D%E7%B2%B9%E5%BE%B7%E5%9C%8B)</t>
-  </si>
-  <si>
-    <t>元首 (納粹德國)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B0%91%E4%B8%BB%E5%85%9A</t>
-  </si>
-  <si>
-    <t>美国民主党</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%85%B1%E5%92%8C%E9%BB%A8</t>
-  </si>
-  <si>
-    <t>美國共和黨</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E8%87%AA%E6%B0%91%E9%BB%A8</t>
-  </si>
-  <si>
-    <t>日本自民黨</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E7%A4%BE%E6%9C%83%E9%BB%A8</t>
-  </si>
-  <si>
-    <t>日本社會黨</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>中華民國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3</t>
-  </si>
-  <si>
-    <t>台灣</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E9%80%B2%E6%AD%A5%E9%BB%A8</t>
-  </si>
-  <si>
-    <t>民主進步黨</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E5%85%9A%E4%B8%93%E6%94%BF</t>
-  </si>
-  <si>
-    <t>一党专政</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%89%9B%E6%80%A7%E6%94%BF%E9%BB%A8</t>
-  </si>
-  <si>
-    <t>剛性政黨</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9F%94%E6%80%A7%E6%94%BF%E9%BB%A8</t>
-  </si>
-  <si>
-    <t>柔性政黨</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
-  </si>
-  <si>
-    <t>加拿大</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>澳大利亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A5%BF%E8%98%AD</t>
-  </si>
-  <si>
-    <t>新西蘭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E9%BB%A8%E6%94%BF%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>政黨政治</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%9A%E5%91%98</t>
-  </si>
-  <si>
-    <t>党员</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%85%9A%E6%A0%87%E5%BF%97</t>
-  </si>
-  <si>
-    <t>政党标志</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E9%BB%A8%E7%8D%A8%E5%A4%A7</t>
-  </si>
-  <si>
-    <t>一黨獨大</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>中華人民共和國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%81%B8%E8%88%89%E5%88%B6%E5%BA%A6</t>
-  </si>
-  <si>
-    <t>選舉制度</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6</t>
-  </si>
-  <si>
-    <t>印度</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%A4%A7%E9%BB%A8</t>
-  </si>
-  <si>
-    <t>國大黨</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E4%BA%BA%E6%B0%91%E9%BB%A8</t>
-  </si>
-  <si>
-    <t>印度人民黨</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95</t>
-  </si>
-  <si>
-    <t>立法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
-  </si>
-  <si>
-    <t>義大利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%AD%81%E5%8C%97%E5%85%8B%E4%BA%BA%E9%BB%A8</t>
-  </si>
-  <si>
-    <t>魁北克人黨</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E9%BB%A8</t>
-  </si>
-  <si>
-    <t>綠黨</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%9C%AC</t>
-  </si>
-  <si>
-    <t>人本</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E4%BF%9D</t>
-  </si>
-  <si>
-    <t>環保</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF</t>
-  </si>
-  <si>
-    <t>香港</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%85%9A%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>政党列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E9%BB%A8%E8%BC%AA%E6%9B%BF</t>
-  </si>
-  <si>
-    <t>政黨輪替</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%8F%82%E4%B8%8E</t>
-  </si>
-  <si>
-    <t>政治参与</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%81%8E%E5%BA%A6%E7%A4%BE%E6%9C%83%E5%8C%96</t>
-  </si>
-  <si>
-    <t>過度社會化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%95%86%E5%8B%99%E5%8D%B0%E6%9B%B8%E9%A4%A8%EF%BC%88%E9%A6%99%E6%B8%AF%EF%BC%89%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
-  </si>
-  <si>
-    <t>商務印書館（香港）有限公司</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%8C%A2%E7%A9%86</t>
-  </si>
-  <si>
-    <t>錢穆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9F%B3%E7%BF%BC%E8%AC%80</t>
-  </si>
-  <si>
-    <t>柳翼謀</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E6%96%87%E5%8C%96%E5%8F%B2_(%E6%9F%B3%E8%A9%92%E5%BE%B5)</t>
-  </si>
-  <si>
-    <t>中國文化史 (柳詒徵)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
-  </si>
-  <si>
-    <t>權威控制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
-  </si>
-  <si>
-    <t>整合规范文档</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
-  </si>
-  <si>
-    <t>國立國會圖書館</t>
+    <t>浏览条目正文[c]</t>
+  </si>
+  <si>
+    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -2124,7 +2088,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I308"/>
+  <dimension ref="A1:I310"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3770,7 +3734,7 @@
         <v>113</v>
       </c>
       <c r="F57" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="G57" t="n">
         <v>19</v>
@@ -3796,10 +3760,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>2</v>
@@ -3825,10 +3789,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3854,10 +3818,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F60" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="G60" t="n">
         <v>4</v>
@@ -3883,10 +3847,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F61" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>3</v>
@@ -3912,10 +3876,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F62" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3941,10 +3905,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F63" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3970,10 +3934,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F64" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3999,10 +3963,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F65" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -4028,10 +3992,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F66" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -4057,10 +4021,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F67" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -4086,10 +4050,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F68" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -4115,10 +4079,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F69" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -4144,10 +4108,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F70" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -4173,10 +4137,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F71" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -4202,10 +4166,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F72" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -4231,10 +4195,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F73" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G73" t="n">
         <v>2</v>
@@ -4260,10 +4224,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F74" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G74" t="n">
         <v>2</v>
@@ -4289,10 +4253,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F75" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G75" t="n">
         <v>3</v>
@@ -4318,10 +4282,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F76" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4347,10 +4311,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F77" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G77" t="n">
         <v>11</v>
@@ -4376,10 +4340,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F78" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G78" t="n">
         <v>43</v>
@@ -4405,10 +4369,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F79" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4434,10 +4398,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F80" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G80" t="n">
         <v>4</v>
@@ -4463,10 +4427,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F81" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G81" t="n">
         <v>16</v>
@@ -4492,10 +4456,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F82" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4521,10 +4485,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F83" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
@@ -4550,10 +4514,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F84" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G84" t="n">
         <v>2</v>
@@ -4579,10 +4543,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F85" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4608,10 +4572,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F86" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G86" t="n">
         <v>14</v>
@@ -4637,10 +4601,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F87" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G87" t="n">
         <v>6</v>
@@ -4666,10 +4630,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F88" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4695,10 +4659,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F89" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G89" t="n">
         <v>2</v>
@@ -4724,10 +4688,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F90" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G90" t="n">
         <v>2</v>
@@ -4753,10 +4717,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F91" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G91" t="n">
         <v>4</v>
@@ -4782,10 +4746,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F92" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G92" t="n">
         <v>6</v>
@@ -4811,10 +4775,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F93" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G93" t="n">
         <v>7</v>
@@ -4840,10 +4804,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F94" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G94" t="n">
         <v>7</v>
@@ -4869,10 +4833,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F95" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G95" t="n">
         <v>2</v>
@@ -4898,10 +4862,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F96" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G96" t="n">
         <v>4</v>
@@ -4927,10 +4891,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F97" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G97" t="n">
         <v>8</v>
@@ -4956,10 +4920,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F98" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="G98" t="n">
         <v>2</v>
@@ -4985,10 +4949,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F99" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G99" t="n">
         <v>6</v>
@@ -5014,10 +4978,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F100" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G100" t="n">
         <v>8</v>
@@ -5043,10 +5007,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F101" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G101" t="n">
         <v>2</v>
@@ -5072,10 +5036,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F102" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5101,10 +5065,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F103" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5130,10 +5094,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F104" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="G104" t="n">
         <v>5</v>
@@ -5159,10 +5123,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F105" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5188,10 +5152,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F106" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5217,10 +5181,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F107" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5246,10 +5210,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5275,10 +5239,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F109" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G109" t="n">
         <v>2</v>
@@ -5304,10 +5268,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F110" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G110" t="n">
         <v>5</v>
@@ -5333,10 +5297,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F111" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5362,10 +5326,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F112" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5391,10 +5355,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F113" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G113" t="n">
         <v>6</v>
@@ -5420,10 +5384,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F114" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G114" t="n">
         <v>4</v>
@@ -5449,10 +5413,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F115" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G115" t="n">
         <v>5</v>
@@ -5478,10 +5442,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F116" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5507,10 +5471,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F117" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5536,10 +5500,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F118" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G118" t="n">
         <v>2</v>
@@ -5565,10 +5529,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F119" t="s">
-        <v>236</v>
+        <v>186</v>
       </c>
       <c r="G119" t="n">
         <v>6</v>
@@ -5594,10 +5558,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F120" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="G120" t="n">
         <v>3</v>
@@ -5623,10 +5587,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F121" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G121" t="n">
         <v>2</v>
@@ -5652,10 +5616,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F122" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G122" t="n">
         <v>7</v>
@@ -5681,10 +5645,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F123" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G123" t="n">
         <v>6</v>
@@ -5710,10 +5674,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F124" t="s">
-        <v>246</v>
+        <v>188</v>
       </c>
       <c r="G124" t="n">
         <v>11</v>
@@ -5739,10 +5703,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F125" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5768,10 +5732,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F126" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5797,10 +5761,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F127" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5826,10 +5790,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="F128" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5855,10 +5819,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="F129" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5884,10 +5848,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="F130" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5913,10 +5877,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F131" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5942,10 +5906,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F132" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G132" t="n">
         <v>9</v>
@@ -5971,10 +5935,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F133" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6000,10 +5964,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F134" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G134" t="n">
         <v>2</v>
@@ -6029,10 +5993,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F135" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="G135" t="n">
         <v>2</v>
@@ -6058,10 +6022,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="F136" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="G136" t="n">
         <v>2</v>
@@ -6087,10 +6051,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="F137" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6116,10 +6080,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F138" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6145,10 +6109,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F139" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6174,10 +6138,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F140" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6203,10 +6167,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="F141" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="G141" t="n">
         <v>2</v>
@@ -6232,10 +6196,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F142" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6261,10 +6225,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F143" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6290,10 +6254,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F144" t="s">
-        <v>284</v>
+        <v>199</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6319,10 +6283,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="F145" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6348,10 +6312,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="F146" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="G146" t="n">
         <v>2</v>
@@ -6377,10 +6341,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="F147" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6406,10 +6370,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="F148" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6435,10 +6399,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="F149" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="G149" t="n">
         <v>3</v>
@@ -6464,10 +6428,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="F150" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6493,10 +6457,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="F151" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6522,10 +6486,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="F152" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6551,10 +6515,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="F153" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="G153" t="n">
         <v>5</v>
@@ -6580,10 +6544,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="F154" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6609,10 +6573,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="F155" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6638,10 +6602,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="F156" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6667,10 +6631,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="F157" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6696,10 +6660,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="F158" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6725,10 +6689,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="F159" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6754,10 +6718,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="F160" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6783,10 +6747,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="F161" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6812,10 +6776,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="F162" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="G162" t="n">
         <v>5</v>
@@ -6841,10 +6805,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="F163" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6870,10 +6834,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="F164" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6899,10 +6863,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="F165" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="G165" t="n">
         <v>7</v>
@@ -6928,10 +6892,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="F166" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="G166" t="n">
         <v>7</v>
@@ -6957,10 +6921,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F167" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="G167" t="n">
         <v>2</v>
@@ -6986,10 +6950,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="F168" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G168" t="n">
         <v>2</v>
@@ -7015,10 +6979,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="F169" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7044,10 +7008,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="F170" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7073,10 +7037,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="F171" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7102,10 +7066,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="F172" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="G172" t="n">
         <v>2</v>
@@ -7131,10 +7095,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="F173" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G173" t="n">
         <v>2</v>
@@ -7160,10 +7124,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="F174" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="G174" t="n">
         <v>6</v>
@@ -7189,10 +7153,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="F175" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="G175" t="n">
         <v>4</v>
@@ -7218,10 +7182,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="F176" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7247,10 +7211,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="F177" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="G177" t="n">
         <v>5</v>
@@ -7276,10 +7240,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="F178" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7305,10 +7269,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="F179" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7334,10 +7298,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="F180" t="s">
-        <v>356</v>
+        <v>195</v>
       </c>
       <c r="G180" t="n">
         <v>2</v>
@@ -7363,10 +7327,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="F181" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7392,10 +7356,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="F182" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7421,10 +7385,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="F183" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="G183" t="n">
         <v>3</v>
@@ -7450,10 +7414,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="F184" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7479,10 +7443,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="F185" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="G185" t="n">
         <v>8</v>
@@ -7508,10 +7472,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F186" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="G186" t="n">
         <v>2</v>
@@ -7537,10 +7501,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F187" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7566,10 +7530,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="F188" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="G188" t="n">
         <v>6</v>
@@ -7595,10 +7559,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="F189" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="G189" t="n">
         <v>3</v>
@@ -7624,10 +7588,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="F190" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7653,10 +7617,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="F191" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7682,10 +7646,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="F192" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="G192" t="n">
         <v>2</v>
@@ -7711,10 +7675,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="F193" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7740,10 +7704,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="F194" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7769,10 +7733,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="F195" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7798,10 +7762,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="F196" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7827,10 +7791,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="F197" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7856,10 +7820,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="F198" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7885,10 +7849,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="F199" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7914,10 +7878,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="F200" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7943,10 +7907,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="F201" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="G201" t="n">
         <v>5</v>
@@ -7972,10 +7936,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="F202" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8001,10 +7965,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="F203" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8030,10 +7994,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="F204" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8059,10 +8023,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="F205" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8088,10 +8052,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="F206" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8117,10 +8081,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="F207" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8146,10 +8110,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="F208" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8175,10 +8139,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="F209" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8204,10 +8168,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="F210" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="G210" t="n">
         <v>3</v>
@@ -8233,10 +8197,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="F211" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8262,10 +8226,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="F212" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="G212" t="n">
         <v>4</v>
@@ -8291,10 +8255,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="F213" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8320,10 +8284,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="F214" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="G214" t="n">
         <v>2</v>
@@ -8349,10 +8313,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F215" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G215" t="n">
         <v>2</v>
@@ -8378,10 +8342,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="F216" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8407,10 +8371,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="F217" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8436,10 +8400,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="F218" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="G218" t="n">
         <v>12</v>
@@ -8465,10 +8429,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="F219" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="G219" t="n">
         <v>7</v>
@@ -8494,10 +8458,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="F220" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8523,10 +8487,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="F221" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8552,10 +8516,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="F222" t="s">
-        <v>436</v>
+        <v>362</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8581,10 +8545,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="F223" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="G223" t="n">
         <v>3</v>
@@ -8610,10 +8574,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="F224" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="G224" t="n">
         <v>4</v>
@@ -8639,10 +8603,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="F225" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="G225" t="n">
         <v>3</v>
@@ -8668,10 +8632,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="F226" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8697,10 +8661,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="F227" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="G227" t="n">
         <v>6</v>
@@ -8726,10 +8690,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="F228" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G228" t="n">
         <v>2</v>
@@ -8755,10 +8719,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="F229" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8784,10 +8748,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="F230" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8813,10 +8777,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="F231" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8842,10 +8806,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="F232" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="G232" t="n">
         <v>7</v>
@@ -8871,10 +8835,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="F233" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="G233" t="n">
         <v>2</v>
@@ -8900,10 +8864,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="F234" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8929,10 +8893,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="F235" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -8958,10 +8922,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="F236" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="G236" t="n">
         <v>2</v>
@@ -8987,10 +8951,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="F237" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9016,10 +8980,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="F238" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9045,10 +9009,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="F239" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9074,10 +9038,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="F240" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="G240" t="n">
         <v>2</v>
@@ -9103,10 +9067,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="F241" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9132,10 +9096,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="F242" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9161,10 +9125,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="F243" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="G243" t="n">
         <v>5</v>
@@ -9190,10 +9154,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="F244" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9219,10 +9183,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="F245" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9248,10 +9212,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="F246" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9277,10 +9241,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="F247" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9335,10 +9299,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="F249" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="G249" t="n">
         <v>2</v>
@@ -9364,10 +9328,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="F250" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9393,10 +9357,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="F251" t="s">
-        <v>490</v>
+        <v>152</v>
       </c>
       <c r="G251" t="n">
         <v>3</v>
@@ -9422,10 +9386,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="F252" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9451,10 +9415,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F253" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9480,10 +9444,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="F254" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9509,10 +9473,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="F255" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9538,10 +9502,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="F256" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9567,10 +9531,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="F257" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9596,10 +9560,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F258" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9625,10 +9589,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="F259" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="G259" t="n">
         <v>2</v>
@@ -9654,10 +9618,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="F260" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9683,10 +9647,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="F261" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -9712,10 +9676,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="F262" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -9741,10 +9705,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="F263" t="s">
-        <v>510</v>
+        <v>473</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -9770,10 +9734,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="F264" t="s">
-        <v>512</v>
+        <v>471</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -9799,10 +9763,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="F265" t="s">
-        <v>514</v>
+        <v>315</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -9828,10 +9792,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="F266" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -9857,10 +9821,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="F267" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="G267" t="n">
         <v>2</v>
@@ -9886,10 +9850,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="F268" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -9915,10 +9879,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="F269" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="G269" t="n">
         <v>3</v>
@@ -9944,10 +9908,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="F270" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="G270" t="n">
         <v>2</v>
@@ -9973,10 +9937,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="F271" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="G271" t="n">
         <v>3</v>
@@ -10002,10 +9966,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="F272" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10031,10 +9995,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="F273" t="s">
-        <v>530</v>
+        <v>517</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10060,10 +10024,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>531</v>
+        <v>518</v>
       </c>
       <c r="F274" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10089,10 +10053,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
       <c r="F275" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="G275" t="n">
         <v>3</v>
@@ -10118,10 +10082,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="F276" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="G276" t="n">
         <v>7</v>
@@ -10147,10 +10111,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="F277" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="G277" t="n">
         <v>2</v>
@@ -10176,10 +10140,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="F278" t="s">
-        <v>540</v>
+        <v>455</v>
       </c>
       <c r="G278" t="n">
         <v>2</v>
@@ -10205,10 +10169,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="F279" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10234,10 +10198,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="F280" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10263,10 +10227,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="F281" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="G281" t="n">
         <v>7</v>
@@ -10292,10 +10256,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F282" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G282" t="n">
         <v>5</v>
@@ -10321,10 +10285,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F283" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10350,10 +10314,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F284" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G284" t="n">
         <v>2</v>
@@ -10379,10 +10343,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="F285" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="G285" t="n">
         <v>4</v>
@@ -10408,10 +10372,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="F286" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10437,10 +10401,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>549</v>
+        <v>535</v>
       </c>
       <c r="F287" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10466,10 +10430,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F288" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10495,10 +10459,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="F289" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="G289" t="n">
         <v>2</v>
@@ -10524,10 +10488,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>553</v>
+        <v>539</v>
       </c>
       <c r="F290" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10553,10 +10517,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="F291" t="s">
-        <v>556</v>
+        <v>542</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10582,10 +10546,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="F292" t="s">
-        <v>558</v>
+        <v>463</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -10611,10 +10575,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>559</v>
+        <v>544</v>
       </c>
       <c r="F293" t="s">
-        <v>560</v>
+        <v>545</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -10640,10 +10604,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>561</v>
+        <v>546</v>
       </c>
       <c r="F294" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -10669,10 +10633,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>563</v>
+        <v>548</v>
       </c>
       <c r="F295" t="s">
-        <v>564</v>
+        <v>549</v>
       </c>
       <c r="G295" t="n">
         <v>4</v>
@@ -10698,10 +10662,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>565</v>
+        <v>550</v>
       </c>
       <c r="F296" t="s">
-        <v>566</v>
+        <v>551</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -10727,10 +10691,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
       <c r="F297" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="G297" t="n">
         <v>3</v>
@@ -10756,10 +10720,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>567</v>
+        <v>552</v>
       </c>
       <c r="F298" t="s">
-        <v>568</v>
+        <v>553</v>
       </c>
       <c r="G298" t="n">
         <v>2</v>
@@ -10785,10 +10749,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>569</v>
+        <v>554</v>
       </c>
       <c r="F299" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -10814,10 +10778,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>571</v>
+        <v>556</v>
       </c>
       <c r="F300" t="s">
-        <v>572</v>
+        <v>557</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -10843,10 +10807,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="F301" t="s">
-        <v>574</v>
+        <v>559</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -10872,10 +10836,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>575</v>
+        <v>560</v>
       </c>
       <c r="F302" t="s">
-        <v>576</v>
+        <v>561</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -10901,10 +10865,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>577</v>
+        <v>562</v>
       </c>
       <c r="F303" t="s">
-        <v>578</v>
+        <v>563</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -10930,10 +10894,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>579</v>
+        <v>564</v>
       </c>
       <c r="F304" t="s">
-        <v>580</v>
+        <v>565</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -10959,10 +10923,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F305" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -10988,10 +10952,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>581</v>
+        <v>566</v>
       </c>
       <c r="F306" t="s">
-        <v>582</v>
+        <v>567</v>
       </c>
       <c r="G306" t="n">
         <v>3</v>
@@ -11017,10 +10981,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>583</v>
+        <v>568</v>
       </c>
       <c r="F307" t="s">
-        <v>584</v>
+        <v>569</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11046,10 +11010,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>585</v>
+        <v>570</v>
       </c>
       <c r="F308" t="s">
-        <v>586</v>
+        <v>571</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11058,6 +11022,64 @@
         <v>4</v>
       </c>
       <c r="I308" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9">
+      <c r="A309" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B309" t="s">
+        <v>0</v>
+      </c>
+      <c r="C309" t="s">
+        <v>1</v>
+      </c>
+      <c r="D309" t="n">
+        <v>308</v>
+      </c>
+      <c r="E309" t="s">
+        <v>572</v>
+      </c>
+      <c r="F309" t="s">
+        <v>573</v>
+      </c>
+      <c r="G309" t="n">
+        <v>6</v>
+      </c>
+      <c r="H309" t="s">
+        <v>4</v>
+      </c>
+      <c r="I309" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9">
+      <c r="A310" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B310" t="s">
+        <v>0</v>
+      </c>
+      <c r="C310" t="s">
+        <v>1</v>
+      </c>
+      <c r="D310" t="n">
+        <v>309</v>
+      </c>
+      <c r="E310" t="s">
+        <v>572</v>
+      </c>
+      <c r="F310" t="s">
+        <v>574</v>
+      </c>
+      <c r="G310" t="n">
+        <v>1</v>
+      </c>
+      <c r="H310" t="s">
+        <v>4</v>
+      </c>
+      <c r="I310" t="n">
         <v>3</v>
       </c>
     </row>
